--- a/Templates/23_05_09_Json_Excel_Template_screenrefs.xlsx
+++ b/Templates/23_05_09_Json_Excel_Template_screenrefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FloraValentina/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/Arbeit/Onesome/Coding/Jsons/Json Builder/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDE2301-7B25-BF4E-9175-A2C6DD9FAD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EEAA6F-4372-2440-9994-760FD2C53B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{10C9D494-FF19-E541-B5E6-AA7C08DB1016}"/>
   </bookViews>
